--- a/202304/04_単体テスト/04_単体試験仕様書/チーム2/230425社員登録画面_単体試験仕様書(濱).xlsx
+++ b/202304/04_単体テスト/04_単体試験仕様書/チーム2/230425社員登録画面_単体試験仕様書(濱).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3c30a1f16d8e11f/ドキュメント/GitHub/2023-04/202304/04_単体テスト/04_単体試験仕様書/チーム2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7B917C-FD37-45F3-A022-16B3B5CCD639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BB7B917C-FD37-45F3-A022-16B3B5CCD639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9EFA8D-E6A3-4D1A-A65A-2932C95E31FD}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="0" windowWidth="18465" windowHeight="10905" tabRatio="488" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10575" windowHeight="10905" tabRatio="488" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初期画面表示" sheetId="36" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ケース (境界値)" sheetId="43" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ケース!$A$1:$AJ$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ケース!$A$1:$AJ$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ケース (境界値)'!$A$1:$AS$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">初期画面表示!$A$1:$AJ$36</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="65">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -265,32 +265,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワードグレーの文字で「N0000000（8桁）」が表示されること。</t>
-    <rPh sb="23" eb="24">
-      <t>ケタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレスにグレーの文字で「＠を含む最大50文字」が表示されること。</t>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラー「E0001　メールアドレスは必須項目です。」が表示されること。</t>
     <rPh sb="20" eb="22">
       <t>コウモク</t>
@@ -310,16 +284,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員IDにグレーの文字で自動採番でID表示されること。</t>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ジドウサイバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -427,10 +391,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2023/2/31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>年齢</t>
     <rPh sb="0" eb="2">
       <t>ネンレイ</t>
@@ -452,14 +412,6 @@
     <rPh sb="1" eb="3">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12345678901</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1111</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -574,7 +526,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　'-10</t>
+    <t>○</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  '1111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  '12345678901</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NTS@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -585,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -663,14 +640,6 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -999,7 +968,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1070,6 +1039,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,55 +1111,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,6 +1131,66 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1181,67 +1222,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,35 +1240,21 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1498,6 +1471,146 @@
             </a:rPr>
             <a:t>チェックポイント</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC340B21-3177-48E3-848E-92C1EB1FED57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4784911" y="13088470"/>
+          <a:ext cx="2207559" cy="649941"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -27436"/>
+            <a:gd name="adj2" fmla="val -263982"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チェック項目にない「登録失敗画面」へ遷移したので、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一旦欠番とします。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992A684E-87BC-62C6-58C2-B552E3B5D447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4818529" y="10847294"/>
+          <a:ext cx="941295" cy="885265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1997,110 +2110,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="34" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="34" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35" t="s">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="47" t="s">
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="49" t="s">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="47" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="51"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="41"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="38" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="38" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="42" t="s">
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="44">
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="31">
         <v>45040</v>
       </c>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="42" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="46"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="33"/>
     </row>
     <row r="3" spans="1:42" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
@@ -12220,6 +12333,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -12230,13 +12350,6 @@
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12250,13 +12363,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BB260"/>
+  <dimension ref="A1:BB258"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="107" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="107" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="X83" sqref="X83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -12272,114 +12385,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="34" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35" t="str">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="34" t="str">
         <f>初期画面表示!M1</f>
         <v>KS</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="34" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35" t="str">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="34" t="str">
         <f>初期画面表示!V1</f>
         <v>KS001</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="47" t="s">
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="56" t="s">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="65" t="s">
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="58"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="82"/>
     </row>
     <row r="2" spans="1:54" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="38" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39" t="str">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="42" t="str">
         <f>初期画面表示!M2</f>
         <v>勤怠システム</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="38" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39" t="str">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="42" t="str">
         <f>初期画面表示!V2</f>
         <v>社員情報登録画面</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="42" t="s">
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="59">
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="83">
         <v>45040</v>
       </c>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="67" t="s">
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="61"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="85"/>
     </row>
     <row r="3" spans="1:54" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3"/>
@@ -12420,24 +12533,24 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:54" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="77"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="71"/>
       <c r="S4" s="6">
         <v>1</v>
       </c>
@@ -12456,8 +12569,12 @@
       <c r="X4" s="6">
         <v>6</v>
       </c>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="Y4" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>8</v>
+      </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
@@ -12470,32 +12587,32 @@
       <c r="AJ4" s="6"/>
     </row>
     <row r="5" spans="1:54" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="95" t="s">
-        <v>39</v>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="22" t="s">
+        <v>36</v>
       </c>
-      <c r="T5" s="95"/>
+      <c r="T5" s="22"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -12514,26 +12631,26 @@
       <c r="AJ5" s="22"/>
     </row>
     <row r="6" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
@@ -12552,28 +12669,28 @@
       <c r="AJ6" s="22"/>
     </row>
     <row r="7" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="72" t="s">
-        <v>41</v>
+      <c r="A7" s="61"/>
+      <c r="B7" s="53" t="s">
+        <v>38</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
       <c r="U7" s="22"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
@@ -12592,32 +12709,32 @@
       <c r="AJ7" s="22"/>
     </row>
     <row r="8" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95" t="s">
-        <v>42</v>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="22"/>
@@ -12636,36 +12753,44 @@
       <c r="AJ8" s="22"/>
     </row>
     <row r="9" spans="1:54" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="69" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
+      <c r="W9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
@@ -12678,26 +12803,26 @@
       <c r="AJ9" s="22"/>
     </row>
     <row r="10" spans="1:54" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
       <c r="W10" s="25"/>
@@ -12716,28 +12841,28 @@
       <c r="AJ10" s="26"/>
     </row>
     <row r="11" spans="1:54" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="82"/>
-      <c r="B11" s="72" t="s">
-        <v>44</v>
+      <c r="A11" s="61"/>
+      <c r="B11" s="53" t="s">
+        <v>41</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
@@ -12756,33 +12881,37 @@
       <c r="AJ11" s="26"/>
     </row>
     <row r="12" spans="1:54" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="82"/>
-      <c r="B12" s="83" t="s">
-        <v>45</v>
+      <c r="A12" s="61"/>
+      <c r="B12" s="100">
+        <v>44978</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
       <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
+      <c r="V12" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
+      <c r="Y12" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="Z12" s="25"/>
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
@@ -12796,33 +12925,35 @@
       <c r="AJ12" s="26"/>
     </row>
     <row r="13" spans="1:54" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="82"/>
-      <c r="B13" s="92">
+      <c r="A13" s="61"/>
+      <c r="B13" s="68">
         <v>52</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
+      <c r="W13" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
+      <c r="Y13" s="22"/>
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
@@ -12836,34 +12967,36 @@
       <c r="AJ13" s="26"/>
     </row>
     <row r="14" spans="1:54" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="82"/>
-      <c r="B14" s="92">
+      <c r="A14" s="61"/>
+      <c r="B14" s="68">
         <v>365296</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
+      <c r="X14" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
+      <c r="Z14" s="22"/>
       <c r="AA14" s="25"/>
       <c r="AB14" s="25"/>
       <c r="AC14" s="26"/>
@@ -12876,26 +13009,26 @@
       <c r="AJ14" s="26"/>
     </row>
     <row r="15" spans="1:54" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="82"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
@@ -12913,32 +13046,32 @@
       <c r="AI15" s="26"/>
       <c r="AJ15" s="26"/>
       <c r="BB15" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:54" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="82"/>
-      <c r="B16" s="72" t="s">
-        <v>46</v>
+      <c r="A16" s="61"/>
+      <c r="B16" s="53" t="s">
+        <v>42</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
@@ -12956,39 +13089,49 @@
       <c r="AI16" s="26"/>
       <c r="AJ16" s="26"/>
       <c r="BB16" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="82"/>
-      <c r="B17" s="98" t="s">
-        <v>63</v>
+      <c r="A17" s="61"/>
+      <c r="B17" s="59" t="s">
+        <v>62</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
+      <c r="V17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA17" s="22"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="22"/>
       <c r="AD17" s="22"/>
@@ -13000,8 +13143,8 @@
       <c r="AJ17" s="22"/>
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="82"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -13018,8 +13161,8 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="20"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
@@ -13038,9 +13181,9 @@
       <c r="AJ18" s="22"/>
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="82"/>
-      <c r="B19" s="93" t="s">
-        <v>48</v>
+      <c r="A19" s="61"/>
+      <c r="B19" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -13058,8 +13201,8 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
@@ -13078,36 +13221,40 @@
       <c r="AJ19" s="22"/>
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="82"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94" t="s">
-        <v>49</v>
+      <c r="A20" s="61"/>
+      <c r="B20" s="96" t="s">
+        <v>60</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
+      <c r="V20" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
+      <c r="AB20" s="22"/>
       <c r="AC20" s="22"/>
       <c r="AD20" s="22"/>
       <c r="AE20" s="22"/>
@@ -13118,8 +13265,8 @@
       <c r="AJ20" s="22"/>
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="82"/>
-      <c r="B21" s="93"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -13136,8 +13283,8 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
@@ -13156,9 +13303,9 @@
       <c r="AJ21" s="22"/>
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="82"/>
-      <c r="B22" s="93" t="s">
-        <v>41</v>
+      <c r="A22" s="61"/>
+      <c r="B22" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -13176,10 +13323,10 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="V22" s="22"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
@@ -13188,7 +13335,7 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="22"/>
       <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
+      <c r="AE22"/>
       <c r="AF22" s="22"/>
       <c r="AG22" s="22"/>
       <c r="AH22" s="22"/>
@@ -13196,31 +13343,35 @@
       <c r="AJ22" s="22"/>
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="82"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="94" t="s">
-        <v>50</v>
+      <c r="A23" s="61"/>
+      <c r="B23" s="96" t="s">
+        <v>59</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="22"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
@@ -13236,32 +13387,42 @@
       <c r="AJ23" s="22"/>
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="82"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z24" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="22"/>
@@ -13274,41 +13435,33 @@
       <c r="AJ24" s="22"/>
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="82"/>
-      <c r="B25" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="V25" s="22" t="s">
-        <v>42</v>
-      </c>
+      <c r="A25" s="61"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
+      <c r="AA25" s="22"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="22"/>
       <c r="AD25" s="22"/>
@@ -13320,39 +13473,49 @@
       <c r="AJ25" s="22"/>
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="82"/>
-      <c r="B26" s="52" t="s">
-        <v>27</v>
+      <c r="A26" s="61"/>
+      <c r="B26" s="56" t="s">
+        <v>23</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="22"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="W26" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="22"/>
+      <c r="X26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="95"/>
       <c r="AD26" s="22"/>
       <c r="AE26" s="22"/>
       <c r="AF26" s="22"/>
@@ -13362,29 +13525,33 @@
       <c r="AJ26" s="22"/>
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="82"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
@@ -13400,26 +13567,26 @@
       <c r="AJ27" s="22"/>
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="82"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
@@ -13438,26 +13605,26 @@
       <c r="AJ28" s="22"/>
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="82"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
@@ -13476,83 +13643,77 @@
       <c r="AJ29" s="22"/>
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="82"/>
-      <c r="B30" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="T30" s="95"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="82"/>
-      <c r="B31" s="52" t="s">
-        <v>51</v>
+      <c r="A31" s="61"/>
+      <c r="B31" s="56" t="s">
+        <v>37</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="95" t="s">
-        <v>39</v>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="22" t="s">
+        <v>36</v>
       </c>
-      <c r="T31" s="95"/>
-      <c r="U31" s="7"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
       <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
       <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
@@ -13562,28 +13723,30 @@
       <c r="AJ31" s="7"/>
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="82"/>
-      <c r="B32" s="52" t="s">
-        <v>33</v>
+      <c r="A32" s="61"/>
+      <c r="B32" s="56" t="s">
+        <v>45</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="97"/>
-      <c r="T32" s="97"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" s="22"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -13592,38 +13755,36 @@
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="82"/>
-      <c r="B33" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="97"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
@@ -13642,28 +13803,26 @@
       <c r="AJ33" s="22"/>
     </row>
     <row r="34" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="82"/>
-      <c r="B34" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="97"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -13682,28 +13841,36 @@
       <c r="AJ34" s="22"/>
     </row>
     <row r="35" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="82"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="20"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="58"/>
       <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
+      <c r="T35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
@@ -13720,24 +13887,24 @@
       <c r="AJ35" s="22"/>
     </row>
     <row r="36" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="82"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="54"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="58"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -13758,39 +13925,45 @@
       <c r="AJ36" s="22"/>
     </row>
     <row r="37" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="82"/>
-      <c r="B37" s="52" t="s">
-        <v>31</v>
+      <c r="A37" s="61"/>
+      <c r="B37" s="56" t="s">
+        <v>30</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="54"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="58"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
-      <c r="U37" s="7" t="s">
-        <v>39</v>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
+      <c r="X37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z37" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
-      <c r="AC37" s="22"/>
+      <c r="AC37" s="7"/>
       <c r="AD37" s="22"/>
       <c r="AE37" s="22"/>
       <c r="AF37" s="22"/>
@@ -13800,24 +13973,24 @@
       <c r="AJ37" s="22"/>
     </row>
     <row r="38" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="82"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="54"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="58"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
@@ -13838,35 +14011,31 @@
       <c r="AJ38" s="22"/>
     </row>
     <row r="39" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="82"/>
-      <c r="B39" s="52" t="s">
-        <v>32</v>
+      <c r="A39" s="61"/>
+      <c r="B39" s="56" t="s">
+        <v>46</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="54"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="58"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
-      <c r="V39" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W39" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
@@ -13882,32 +14051,40 @@
       <c r="AJ39" s="22"/>
     </row>
     <row r="40" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="82"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="54"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="58"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
+      <c r="X40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z40" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
       <c r="AC40" s="22"/>
@@ -13920,34 +14097,40 @@
       <c r="AJ40" s="22"/>
     </row>
     <row r="41" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="82"/>
-      <c r="B41" s="52" t="s">
-        <v>52</v>
+      <c r="A41" s="61"/>
+      <c r="B41" s="56" t="s">
+        <v>48</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="54"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="58"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
+      <c r="X41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z41" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
       <c r="AC41" s="22"/>
@@ -13960,36 +14143,40 @@
       <c r="AJ41" s="22"/>
     </row>
     <row r="42" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="82"/>
-      <c r="B42" s="52" t="s">
-        <v>53</v>
+      <c r="A42" s="61"/>
+      <c r="B42" s="56" t="s">
+        <v>50</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="54"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="58"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
-      <c r="V42" s="7" t="s">
-        <v>39</v>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
+      <c r="Y42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z42" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="22"/>
@@ -14002,36 +14189,40 @@
       <c r="AJ42" s="22"/>
     </row>
     <row r="43" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="82"/>
-      <c r="B43" s="52" t="s">
-        <v>54</v>
+      <c r="A43" s="61"/>
+      <c r="B43" s="56" t="s">
+        <v>49</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="54"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="58"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
-      <c r="V43" s="7" t="s">
-        <v>39</v>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
+      <c r="Y43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="22"/>
@@ -14044,36 +14235,40 @@
       <c r="AJ43" s="22"/>
     </row>
     <row r="44" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="82"/>
-      <c r="B44" s="52" t="s">
-        <v>56</v>
+      <c r="A44" s="61"/>
+      <c r="B44" s="56" t="s">
+        <v>51</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="54"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="58"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
-      <c r="V44" s="7" t="s">
-        <v>39</v>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
+      <c r="Y44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z44" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="22"/>
@@ -14086,36 +14281,40 @@
       <c r="AJ44" s="22"/>
     </row>
     <row r="45" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="82"/>
-      <c r="B45" s="52" t="s">
-        <v>55</v>
+      <c r="A45" s="61"/>
+      <c r="B45" s="56" t="s">
+        <v>52</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="54"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="58"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
-      <c r="V45" s="7" t="s">
-        <v>39</v>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
+      <c r="Y45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z45" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="22"/>
@@ -14128,36 +14327,40 @@
       <c r="AJ45" s="22"/>
     </row>
     <row r="46" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="82"/>
-      <c r="B46" s="52" t="s">
-        <v>57</v>
+      <c r="A46" s="61"/>
+      <c r="B46" s="18" t="s">
+        <v>53</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="54"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20"/>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
-      <c r="V46" s="7" t="s">
-        <v>39</v>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
+      <c r="Y46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z46" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
       <c r="AC46" s="22"/>
@@ -14170,36 +14373,40 @@
       <c r="AJ46" s="22"/>
     </row>
     <row r="47" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="82"/>
-      <c r="B47" s="52" t="s">
-        <v>58</v>
+      <c r="A47" s="61"/>
+      <c r="B47" s="56" t="s">
+        <v>54</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="54"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="58"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
-      <c r="V47" s="7" t="s">
-        <v>39</v>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
+      <c r="Y47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z47" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
       <c r="AC47" s="22"/>
@@ -14212,36 +14419,40 @@
       <c r="AJ47" s="22"/>
     </row>
     <row r="48" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="82"/>
-      <c r="B48" s="18" t="s">
-        <v>59</v>
+      <c r="A48" s="61"/>
+      <c r="B48" s="56" t="s">
+        <v>55</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="20"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="58"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
-      <c r="V48" s="7" t="s">
-        <v>39</v>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
+      <c r="Y48" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z48" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
       <c r="AC48" s="22"/>
@@ -14254,36 +14465,40 @@
       <c r="AJ48" s="22"/>
     </row>
     <row r="49" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="82"/>
-      <c r="B49" s="52" t="s">
-        <v>60</v>
+      <c r="A49" s="61"/>
+      <c r="B49" s="56" t="s">
+        <v>56</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="54"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="58"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
-      <c r="V49" s="7" t="s">
-        <v>39</v>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
+      <c r="Y49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z49" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
       <c r="AC49" s="22"/>
@@ -14295,74 +14510,94 @@
       <c r="AI49" s="22"/>
       <c r="AJ49" s="22"/>
     </row>
-    <row r="50" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="82"/>
-      <c r="B50" s="52" t="s">
-        <v>61</v>
+    <row r="50" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="79" t="s">
+        <v>14</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7" t="s">
-        <v>39</v>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="79"/>
+      <c r="R50" s="79"/>
+      <c r="S50" s="8" t="s">
+        <v>57</v>
       </c>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="22"/>
-      <c r="AJ50" s="22"/>
-    </row>
-    <row r="51" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="82"/>
-      <c r="B51" s="52" t="s">
-        <v>62</v>
+      <c r="T50" s="8" t="s">
+        <v>57</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
+      <c r="U50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="W50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="X50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="23"/>
+      <c r="AD50" s="23"/>
+      <c r="AE50" s="23"/>
+      <c r="AF50" s="23"/>
+      <c r="AG50" s="23"/>
+      <c r="AH50" s="23"/>
+      <c r="AI50" s="23"/>
+      <c r="AJ50" s="23"/>
+    </row>
+    <row r="51" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="79"/>
+      <c r="S51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="V51" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
@@ -14379,67 +14614,75 @@
       <c r="AI51" s="22"/>
       <c r="AJ51" s="22"/>
     </row>
-    <row r="52" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="55" t="s">
-        <v>14</v>
+    <row r="52" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="86" t="s">
+        <v>10</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="23"/>
-      <c r="AD52" s="23"/>
-      <c r="AE52" s="23"/>
-      <c r="AF52" s="23"/>
-      <c r="AG52" s="23"/>
-      <c r="AH52" s="23"/>
-      <c r="AI52" s="23"/>
-      <c r="AJ52" s="23"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="9">
+        <v>45041</v>
+      </c>
+      <c r="T52" s="9">
+        <v>45041</v>
+      </c>
+      <c r="U52" s="9">
+        <v>45041</v>
+      </c>
+      <c r="V52" s="9">
+        <v>45041</v>
+      </c>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="24"/>
+      <c r="AF52" s="24"/>
+      <c r="AG52" s="24"/>
+      <c r="AH52" s="24"/>
+      <c r="AI52" s="24"/>
+      <c r="AJ52" s="24"/>
     </row>
     <row r="53" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="55" t="s">
-        <v>15</v>
+      <c r="A53" s="79" t="s">
+        <v>16</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="79"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="79"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
@@ -14460,26 +14703,26 @@
       <c r="AJ53" s="22"/>
     </row>
     <row r="54" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="62" t="s">
-        <v>10</v>
+      <c r="A54" s="79" t="s">
+        <v>13</v>
       </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="64"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="79"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
       <c r="S54" s="9"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
@@ -14499,85 +14742,81 @@
       <c r="AI54" s="24"/>
       <c r="AJ54" s="24"/>
     </row>
-    <row r="55" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22"/>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
-      <c r="AG55" s="22"/>
-      <c r="AH55" s="22"/>
-      <c r="AI55" s="22"/>
-      <c r="AJ55" s="22"/>
-    </row>
-    <row r="56" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="24"/>
-      <c r="AE56" s="24"/>
-      <c r="AF56" s="24"/>
-      <c r="AG56" s="24"/>
-      <c r="AH56" s="24"/>
-      <c r="AI56" s="24"/>
-      <c r="AJ56" s="24"/>
+    <row r="55" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+    </row>
+    <row r="56" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
     </row>
     <row r="57" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57"/>
@@ -14625,7 +14864,7 @@
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
-      <c r="H58"/>
+      <c r="H58" s="4"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -14701,7 +14940,7 @@
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
-      <c r="H60" s="4"/>
+      <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -22255,126 +22494,21 @@
       <c r="AI258"/>
       <c r="AJ258"/>
     </row>
-    <row r="259" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A259"/>
-      <c r="B259"/>
-      <c r="C259"/>
-      <c r="D259"/>
-      <c r="E259"/>
-      <c r="F259"/>
-      <c r="G259"/>
-      <c r="H259"/>
-      <c r="I259"/>
-      <c r="J259"/>
-      <c r="K259"/>
-      <c r="L259"/>
-      <c r="M259"/>
-      <c r="N259"/>
-      <c r="O259"/>
-      <c r="P259"/>
-      <c r="Q259"/>
-      <c r="R259"/>
-      <c r="S259"/>
-      <c r="T259"/>
-      <c r="U259"/>
-      <c r="V259"/>
-      <c r="W259"/>
-      <c r="X259"/>
-      <c r="Y259"/>
-      <c r="Z259"/>
-      <c r="AA259"/>
-      <c r="AB259"/>
-      <c r="AC259"/>
-      <c r="AD259"/>
-      <c r="AE259"/>
-      <c r="AF259"/>
-      <c r="AG259"/>
-      <c r="AH259"/>
-      <c r="AI259"/>
-      <c r="AJ259"/>
-    </row>
-    <row r="260" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A260"/>
-      <c r="B260"/>
-      <c r="C260"/>
-      <c r="D260"/>
-      <c r="E260"/>
-      <c r="F260"/>
-      <c r="G260"/>
-      <c r="H260"/>
-      <c r="I260"/>
-      <c r="J260"/>
-      <c r="K260"/>
-      <c r="L260"/>
-      <c r="M260"/>
-      <c r="N260"/>
-      <c r="O260"/>
-      <c r="P260"/>
-      <c r="Q260"/>
-      <c r="R260"/>
-      <c r="S260"/>
-      <c r="T260"/>
-      <c r="U260"/>
-      <c r="V260"/>
-      <c r="W260"/>
-      <c r="X260"/>
-      <c r="Y260"/>
-      <c r="Z260"/>
-      <c r="AA260"/>
-      <c r="AB260"/>
-      <c r="AC260"/>
-      <c r="AD260"/>
-      <c r="AE260"/>
-      <c r="AF260"/>
-      <c r="AG260"/>
-      <c r="AH260"/>
-      <c r="AI260"/>
-      <c r="AJ260"/>
-    </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B45:R45"/>
-    <mergeCell ref="B46:R46"/>
-    <mergeCell ref="B47:R47"/>
-    <mergeCell ref="B51:R51"/>
-    <mergeCell ref="B49:R49"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B43:R43"/>
-    <mergeCell ref="B44:R44"/>
-    <mergeCell ref="B36:R36"/>
-    <mergeCell ref="B37:R37"/>
-    <mergeCell ref="B38:R38"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B31:R31"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B33:R33"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B17:R17"/>
+  <mergeCells count="62">
+    <mergeCell ref="A54:R54"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="A51:R51"/>
+    <mergeCell ref="A53:R53"/>
+    <mergeCell ref="A50:R50"/>
+    <mergeCell ref="A52:R52"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B24:R24"/>
     <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A5:A51"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B50:R50"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B20:R20"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AA1:AB1"/>
@@ -22385,19 +22519,49 @@
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="A56:R56"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="A53:R53"/>
-    <mergeCell ref="A55:R55"/>
-    <mergeCell ref="A52:R52"/>
-    <mergeCell ref="A54:R54"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="A5:A49"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B48:R48"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B49:R49"/>
+    <mergeCell ref="B47:R47"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B43:R43"/>
+    <mergeCell ref="B44:R44"/>
+    <mergeCell ref="B45:R45"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="B35:R35"/>
+    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="B37:R37"/>
+    <mergeCell ref="B31:R31"/>
+    <mergeCell ref="B32:R32"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B26:R26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S52:AJ52" xr:uid="{3FCFDBD8-BCAF-FD4F-B521-B180AABC7AB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S50:AJ50" xr:uid="{3FCFDBD8-BCAF-FD4F-B521-B180AABC7AB5}">
       <formula1>"○,×,ー"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22414,7 +22578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDC11B8-2F6C-8C44-97F2-4787DFCC6DA8}">
   <dimension ref="A1:AS279"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="107" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="107" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="AF64" sqref="AF64"/>
     </sheetView>
   </sheetViews>
@@ -22431,114 +22595,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="34" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35" t="str">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="34" t="str">
         <f>初期画面表示!M1</f>
         <v>KS</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="34" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35" t="str">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="34" t="str">
         <f>初期画面表示!V1</f>
         <v>KS001</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="47" t="s">
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="49" t="s">
-        <v>43</v>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="39" t="s">
+        <v>40</v>
       </c>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="47" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="51"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="41"/>
     </row>
     <row r="2" spans="1:45" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="38" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39" t="str">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="42" t="str">
         <f>初期画面表示!M2</f>
         <v>勤怠システム</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="38" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39" t="str">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="42" t="str">
         <f>初期画面表示!V2</f>
         <v>社員情報登録画面</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="42" t="s">
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="44">
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="31">
         <v>45040</v>
       </c>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="42" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="46"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="33"/>
     </row>
     <row r="3" spans="1:45" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3"/>
@@ -22579,24 +22743,24 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:45" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="77"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="71"/>
       <c r="S4" s="6">
         <v>1</v>
       </c>
@@ -22683,25 +22847,25 @@
       <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="54"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="58"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -22752,7 +22916,7 @@
       <c r="Q6" s="90"/>
       <c r="R6" s="91"/>
       <c r="S6" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -22804,7 +22968,7 @@
       <c r="R7" s="91"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -22856,7 +23020,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -22908,7 +23072,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
@@ -22983,25 +23147,25 @@
     </row>
     <row r="11" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
-      <c r="B11" s="52" t="s">
-        <v>34</v>
+      <c r="B11" s="56" t="s">
+        <v>31</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="58"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -23056,7 +23220,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -23108,7 +23272,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
@@ -23160,7 +23324,7 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
@@ -23212,7 +23376,7 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
@@ -23264,7 +23428,7 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
@@ -23287,23 +23451,23 @@
     </row>
     <row r="17" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="54"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="58"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -23334,25 +23498,25 @@
     </row>
     <row r="18" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
-      <c r="B18" s="52" t="s">
-        <v>35</v>
+      <c r="B18" s="56" t="s">
+        <v>32</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="54"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="58"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -23412,7 +23576,7 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
@@ -23464,7 +23628,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
@@ -23516,7 +23680,7 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
@@ -23568,7 +23732,7 @@
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
@@ -23620,7 +23784,7 @@
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
@@ -23672,7 +23836,7 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
@@ -23736,25 +23900,25 @@
     </row>
     <row r="26" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
-      <c r="B26" s="52" t="s">
-        <v>36</v>
+      <c r="B26" s="56" t="s">
+        <v>33</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="54"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="58"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
@@ -23820,7 +23984,7 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
@@ -23872,7 +24036,7 @@
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
@@ -23924,7 +24088,7 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
@@ -23976,7 +24140,7 @@
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
@@ -24028,7 +24192,7 @@
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
       <c r="AL31" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
@@ -24080,7 +24244,7 @@
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AN32" s="7"/>
       <c r="AO32" s="7"/>
@@ -24138,25 +24302,25 @@
     </row>
     <row r="34" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
-      <c r="B34" s="52" t="s">
-        <v>37</v>
+      <c r="B34" s="56" t="s">
+        <v>34</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="54"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="58"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -24228,7 +24392,7 @@
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AO35" s="7"/>
       <c r="AP35" s="7"/>
@@ -24280,7 +24444,7 @@
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
       <c r="AO36" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
@@ -24332,7 +24496,7 @@
       <c r="AN37" s="7"/>
       <c r="AO37" s="7"/>
       <c r="AP37" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="7"/>
@@ -24384,7 +24548,7 @@
       <c r="AO38" s="7"/>
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AR38" s="7"/>
       <c r="AS38" s="7"/>
@@ -24436,7 +24600,7 @@
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AS39" s="7"/>
     </row>
@@ -24488,28 +24652,28 @@
       <c r="AQ40" s="7"/>
       <c r="AR40" s="7"/>
       <c r="AS40" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="54"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="58"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -24540,126 +24704,126 @@
     </row>
     <row r="42" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="54"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="58"/>
       <c r="S42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AD42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AE42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AF42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AG42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AH42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AI42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AJ42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AK42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AL42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AM42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AN42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AO42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AP42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AQ42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AR42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AS42" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="54"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="58"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -24784,23 +24948,23 @@
     </row>
     <row r="46" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="54"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="58"/>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -24831,23 +24995,23 @@
     </row>
     <row r="47" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="54"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="58"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
@@ -24878,23 +25042,23 @@
     </row>
     <row r="48" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="54"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="58"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
@@ -24925,23 +25089,23 @@
     </row>
     <row r="49" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="54"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="58"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
@@ -24972,23 +25136,23 @@
     </row>
     <row r="50" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="54"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="58"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
@@ -25019,23 +25183,23 @@
     </row>
     <row r="51" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="54"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="58"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
@@ -25066,23 +25230,23 @@
     </row>
     <row r="52" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="54"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="58"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -25112,26 +25276,26 @@
       <c r="AS52" s="7"/>
     </row>
     <row r="53" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="54"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="58"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
@@ -25161,24 +25325,24 @@
       <c r="AS53" s="7"/>
     </row>
     <row r="54" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="87"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="54"/>
+      <c r="A54" s="93"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="58"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
@@ -25208,24 +25372,24 @@
       <c r="AS54" s="7"/>
     </row>
     <row r="55" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="87"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="54"/>
+      <c r="A55" s="93"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="58"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
@@ -25255,24 +25419,24 @@
       <c r="AS55" s="7"/>
     </row>
     <row r="56" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="87"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="54"/>
+      <c r="A56" s="93"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="58"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
@@ -25302,127 +25466,127 @@
       <c r="AS56" s="7"/>
     </row>
     <row r="57" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="87"/>
-      <c r="B57" s="52" t="s">
-        <v>38</v>
+      <c r="A57" s="93"/>
+      <c r="B57" s="56" t="s">
+        <v>35</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="54"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="58"/>
       <c r="S57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AC57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AD57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AE57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AF57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AG57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AH57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AI57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AJ57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AK57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AL57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AM57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AN57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AO57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AP57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AQ57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AR57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AS57" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="87"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="54"/>
+      <c r="A58" s="93"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="58"/>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
@@ -25452,24 +25616,24 @@
       <c r="AS58" s="7"/>
     </row>
     <row r="59" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="87"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="54"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="58"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
@@ -25499,24 +25663,24 @@
       <c r="AS59" s="7"/>
     </row>
     <row r="60" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="87"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="54"/>
+      <c r="A60" s="93"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="58"/>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
@@ -25546,24 +25710,24 @@
       <c r="AS60" s="7"/>
     </row>
     <row r="61" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="87"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="54"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="58"/>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
@@ -25593,24 +25757,24 @@
       <c r="AS61" s="7"/>
     </row>
     <row r="62" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="87"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="54"/>
+      <c r="A62" s="93"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="58"/>
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
@@ -25640,24 +25804,24 @@
       <c r="AS62" s="7"/>
     </row>
     <row r="63" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="87"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="54"/>
+      <c r="A63" s="93"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="58"/>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
@@ -25687,24 +25851,24 @@
       <c r="AS63" s="7"/>
     </row>
     <row r="64" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="87"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53"/>
-      <c r="R64" s="54"/>
+      <c r="A64" s="93"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="58"/>
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
@@ -25734,24 +25898,24 @@
       <c r="AS64" s="7"/>
     </row>
     <row r="65" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="87"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="54"/>
+      <c r="A65" s="93"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="58"/>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
@@ -25781,24 +25945,24 @@
       <c r="AS65" s="7"/>
     </row>
     <row r="66" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="87"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="53"/>
-      <c r="R66" s="54"/>
+      <c r="A66" s="93"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="58"/>
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
@@ -25828,24 +25992,24 @@
       <c r="AS66" s="7"/>
     </row>
     <row r="67" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="87"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="53"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="54"/>
+      <c r="A67" s="93"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="58"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
@@ -25875,24 +26039,24 @@
       <c r="AS67" s="7"/>
     </row>
     <row r="68" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="87"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="54"/>
+      <c r="A68" s="93"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="58"/>
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
@@ -25922,24 +26086,24 @@
       <c r="AS68" s="7"/>
     </row>
     <row r="69" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="87"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="54"/>
+      <c r="A69" s="93"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="58"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
@@ -25969,24 +26133,24 @@
       <c r="AS69" s="7"/>
     </row>
     <row r="70" spans="1:45" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="88"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="54"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+      <c r="Q70" s="57"/>
+      <c r="R70" s="58"/>
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
@@ -26016,26 +26180,26 @@
       <c r="AS70" s="7"/>
     </row>
     <row r="71" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="55"/>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="55"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
@@ -26065,26 +26229,26 @@
       <c r="AS71" s="8"/>
     </row>
     <row r="72" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="55"/>
-      <c r="Q72" s="55"/>
-      <c r="R72" s="55"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="79"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="79"/>
+      <c r="Q72" s="79"/>
+      <c r="R72" s="79"/>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
@@ -26114,26 +26278,26 @@
       <c r="AS72" s="7"/>
     </row>
     <row r="73" spans="1:45" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="64"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="87"/>
+      <c r="J73" s="87"/>
+      <c r="K73" s="87"/>
+      <c r="L73" s="87"/>
+      <c r="M73" s="87"/>
+      <c r="N73" s="87"/>
+      <c r="O73" s="87"/>
+      <c r="P73" s="87"/>
+      <c r="Q73" s="87"/>
+      <c r="R73" s="88"/>
       <c r="S73" s="9"/>
       <c r="T73" s="10"/>
       <c r="U73" s="10"/>
@@ -26163,26 +26327,26 @@
       <c r="AS73" s="10"/>
     </row>
     <row r="74" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="55"/>
-      <c r="P74" s="55"/>
-      <c r="Q74" s="55"/>
-      <c r="R74" s="55"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
+      <c r="N74" s="79"/>
+      <c r="O74" s="79"/>
+      <c r="P74" s="79"/>
+      <c r="Q74" s="79"/>
+      <c r="R74" s="79"/>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
@@ -26212,26 +26376,26 @@
       <c r="AS74" s="7"/>
     </row>
     <row r="75" spans="1:45" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="55"/>
-      <c r="Q75" s="55"/>
-      <c r="R75" s="55"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="79"/>
+      <c r="O75" s="79"/>
+      <c r="P75" s="79"/>
+      <c r="Q75" s="79"/>
+      <c r="R75" s="79"/>
       <c r="S75" s="9"/>
       <c r="T75" s="10"/>
       <c r="U75" s="10"/>
@@ -34014,46 +34178,40 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B31:R31"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B33:R33"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B35:R35"/>
-    <mergeCell ref="B36:R36"/>
-    <mergeCell ref="B37:R37"/>
-    <mergeCell ref="B38:R38"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="A72:R72"/>
+    <mergeCell ref="A73:R73"/>
+    <mergeCell ref="A74:R74"/>
+    <mergeCell ref="A75:R75"/>
+    <mergeCell ref="B66:R66"/>
+    <mergeCell ref="B67:R67"/>
+    <mergeCell ref="B68:R68"/>
+    <mergeCell ref="B69:R69"/>
+    <mergeCell ref="B70:R70"/>
+    <mergeCell ref="A71:R71"/>
+    <mergeCell ref="A53:A70"/>
+    <mergeCell ref="B53:R53"/>
+    <mergeCell ref="B54:R54"/>
+    <mergeCell ref="B55:R55"/>
+    <mergeCell ref="B56:R56"/>
+    <mergeCell ref="B57:R57"/>
+    <mergeCell ref="B58:R58"/>
+    <mergeCell ref="B59:R59"/>
+    <mergeCell ref="B65:R65"/>
+    <mergeCell ref="B64:R64"/>
+    <mergeCell ref="B60:R60"/>
+    <mergeCell ref="B61:R61"/>
+    <mergeCell ref="B62:R62"/>
+    <mergeCell ref="B63:R63"/>
+    <mergeCell ref="B51:R51"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B43:R43"/>
+    <mergeCell ref="B44:R44"/>
+    <mergeCell ref="B45:R45"/>
+    <mergeCell ref="B46:R46"/>
+    <mergeCell ref="B47:R47"/>
+    <mergeCell ref="B48:R48"/>
+    <mergeCell ref="B49:R49"/>
+    <mergeCell ref="B50:R50"/>
     <mergeCell ref="B52:R52"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
@@ -34070,40 +34228,46 @@
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B51:R51"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B43:R43"/>
-    <mergeCell ref="B44:R44"/>
-    <mergeCell ref="B45:R45"/>
-    <mergeCell ref="B46:R46"/>
-    <mergeCell ref="B47:R47"/>
-    <mergeCell ref="B48:R48"/>
-    <mergeCell ref="B49:R49"/>
-    <mergeCell ref="B50:R50"/>
-    <mergeCell ref="B58:R58"/>
-    <mergeCell ref="B59:R59"/>
-    <mergeCell ref="B65:R65"/>
-    <mergeCell ref="B64:R64"/>
-    <mergeCell ref="B60:R60"/>
-    <mergeCell ref="B61:R61"/>
-    <mergeCell ref="B62:R62"/>
-    <mergeCell ref="B63:R63"/>
-    <mergeCell ref="A72:R72"/>
-    <mergeCell ref="A73:R73"/>
-    <mergeCell ref="A74:R74"/>
-    <mergeCell ref="A75:R75"/>
-    <mergeCell ref="B66:R66"/>
-    <mergeCell ref="B67:R67"/>
-    <mergeCell ref="B68:R68"/>
-    <mergeCell ref="B69:R69"/>
-    <mergeCell ref="B70:R70"/>
-    <mergeCell ref="A71:R71"/>
-    <mergeCell ref="A53:A70"/>
-    <mergeCell ref="B53:R53"/>
-    <mergeCell ref="B54:R54"/>
-    <mergeCell ref="B55:R55"/>
-    <mergeCell ref="B56:R56"/>
-    <mergeCell ref="B57:R57"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B31:R31"/>
+    <mergeCell ref="B32:R32"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B33:R33"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="B35:R35"/>
+    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="B37:R37"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
